--- a/QuizWhizAI - Test Case for Backend.xlsx
+++ b/QuizWhizAI - Test Case for Backend.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>test scenario: ***</t>
   </si>
@@ -204,12 +204,15 @@
   <si>
     <t>verify that users can login as user without the " Remember Me " option .</t>
   </si>
+  <si>
+    <t>SL. No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -253,8 +256,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +291,14 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -359,11 +383,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -392,13 +453,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -409,8 +470,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,7 +717,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_2" displayName="Table_2" ref="A3:H4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_2" displayName="Table_2" ref="B3:I4">
   <tableColumns count="8">
     <tableColumn id="1" name="Test Case ID"/>
     <tableColumn id="2" name="Prerequisites"/>
@@ -662,7 +733,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_3" displayName="Table_3" ref="A5:H5" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_3" displayName="Table_3" ref="B5:I5" headerRowCount="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -678,7 +749,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_4" displayName="Table_4" ref="A6:H6" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_4" displayName="Table_4" ref="B6:I6" headerRowCount="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -694,7 +765,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_5" displayName="Table_5" ref="A7:H7" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_5" displayName="Table_5" ref="B7:I7" headerRowCount="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -710,7 +781,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_6" displayName="Table_6" ref="A8:H8" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_6" displayName="Table_6" ref="B8:I8" headerRowCount="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -726,7 +797,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table_7" displayName="Table_7" ref="A9:H9" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table_7" displayName="Table_7" ref="B9:I9" headerRowCount="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -742,7 +813,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table_8" displayName="Table_8" ref="A10:H10" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table_8" displayName="Table_8" ref="B10:I10" headerRowCount="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -758,7 +829,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_9" displayName="Table_9" ref="A11:H11" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_9" displayName="Table_9" ref="B11:I11" headerRowCount="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -8209,37 +8280,37 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" customWidth="1"/>
-    <col min="9" max="27" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="6" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
+    <col min="10" max="28" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19"/>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -8258,17 +8329,18 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -8287,33 +8359,36 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-    </row>
-    <row r="3" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -8332,33 +8407,36 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -8377,33 +8455,36 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
-    </row>
-    <row r="5" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -8422,33 +8503,36 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
-    </row>
-    <row r="6" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -8467,33 +8551,36 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-    </row>
-    <row r="7" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -8512,33 +8599,36 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
-    </row>
-    <row r="8" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -8557,33 +8647,36 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
-    </row>
-    <row r="9" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -8602,33 +8695,36 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -8647,33 +8743,36 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>8</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -8692,9 +8791,9 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -8702,7 +8801,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -8721,9 +8820,9 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -8731,7 +8830,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -8750,9 +8849,9 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -8760,7 +8859,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -8779,9 +8878,9 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -8789,7 +8888,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -8808,9 +8907,9 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -8818,7 +8917,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -8837,9 +8936,9 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="1:27" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="2:28" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -8847,7 +8946,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -8866,9 +8965,9 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="1:27" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="2:28" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -8876,7 +8975,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -8895,9 +8994,9 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="1:27" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="2:28" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -8905,7 +9004,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -8924,9 +9023,9 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="2:28" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -8934,7 +9033,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -8953,9 +9052,9 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="2:28" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -8963,7 +9062,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -8982,9 +9081,9 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="1:27" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" spans="2:28" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -8992,7 +9091,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -9011,9 +9110,9 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="1:27" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" spans="2:28" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -9021,7 +9120,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -9040,9 +9139,9 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="1:27" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="2:28" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -9050,7 +9149,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -9069,9 +9168,9 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="1:27" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="AB24" s="1"/>
+    </row>
+    <row r="25" spans="2:28" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -9079,7 +9178,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -9098,9 +9197,9 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
-    </row>
-    <row r="26" spans="1:27" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="AB25" s="1"/>
+    </row>
+    <row r="26" spans="2:28" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -9108,7 +9207,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -9127,9 +9226,9 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-    </row>
-    <row r="27" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" spans="2:28" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -9137,7 +9236,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -9156,9 +9255,9 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-    </row>
-    <row r="28" spans="1:27" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" spans="2:28" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -9166,7 +9265,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -9185,9 +9284,9 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-    </row>
-    <row r="29" spans="1:27" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="AB28" s="1"/>
+    </row>
+    <row r="29" spans="2:28" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -9195,7 +9294,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -9214,9 +9313,9 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="AB29" s="1"/>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -9224,7 +9323,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -9243,9 +9342,9 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="AB30" s="1"/>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -9253,7 +9352,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -9272,9 +9371,9 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="AB31" s="1"/>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -9282,7 +9381,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -9301,9 +9400,9 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="AB32" s="1"/>
+    </row>
+    <row r="33" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -9311,7 +9410,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -9330,9 +9429,9 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="AB33" s="1"/>
+    </row>
+    <row r="34" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -9340,7 +9439,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -9359,9 +9458,9 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
-    </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="AB34" s="1"/>
+    </row>
+    <row r="35" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -9369,7 +9468,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -9388,9 +9487,9 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+      <c r="AB35" s="1"/>
+    </row>
+    <row r="36" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -9398,7 +9497,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -9417,9 +9516,9 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
+      <c r="AB36" s="1"/>
+    </row>
+    <row r="37" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -9427,7 +9526,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -9446,9 +9545,9 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
-    </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
+      <c r="AB37" s="1"/>
+    </row>
+    <row r="38" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -9456,7 +9555,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -9475,9 +9574,9 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
-    </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -9485,7 +9584,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -9504,9 +9603,9 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
-    </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -9514,7 +9613,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -9533,9 +9632,9 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
+      <c r="AB40" s="1"/>
+    </row>
+    <row r="41" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -9543,7 +9642,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -9562,9 +9661,9 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
+      <c r="AB41" s="1"/>
+    </row>
+    <row r="42" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -9572,7 +9671,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -9591,9 +9690,9 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
+      <c r="AB42" s="1"/>
+    </row>
+    <row r="43" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -9601,7 +9700,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -9620,9 +9719,9 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
-    </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
+      <c r="AB43" s="1"/>
+    </row>
+    <row r="44" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -9630,7 +9729,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -9649,9 +9748,9 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
+      <c r="AB44" s="1"/>
+    </row>
+    <row r="45" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -9659,7 +9758,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -9678,9 +9777,9 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
+      <c r="AB45" s="1"/>
+    </row>
+    <row r="46" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -9688,7 +9787,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -9707,9 +9806,9 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
-    </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
+      <c r="AB46" s="1"/>
+    </row>
+    <row r="47" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -9717,7 +9816,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -9736,9 +9835,9 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
+      <c r="AB47" s="1"/>
+    </row>
+    <row r="48" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -9746,7 +9845,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -9765,9 +9864,9 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
-    </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
+      <c r="AB48" s="1"/>
+    </row>
+    <row r="49" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -9775,7 +9874,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -9794,9 +9893,9 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
-    </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -9804,7 +9903,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -9823,9 +9922,9 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
-    </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="51" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -9833,7 +9932,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="8"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -9852,9 +9951,9 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
-    </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -9862,7 +9961,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="8"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -9881,9 +9980,9 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
-    </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -9891,7 +9990,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -9910,9 +10009,9 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
-    </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
+      <c r="AB53" s="1"/>
+    </row>
+    <row r="54" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -9920,7 +10019,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="8"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -9939,9 +10038,9 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
-    </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
+      <c r="AB54" s="1"/>
+    </row>
+    <row r="55" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -9949,7 +10048,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="8"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -9968,9 +10067,9 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
-    </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
+      <c r="AB55" s="1"/>
+    </row>
+    <row r="56" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -9978,7 +10077,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="8"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -9997,9 +10096,9 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
-    </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+      <c r="AB56" s="1"/>
+    </row>
+    <row r="57" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -10007,7 +10106,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="8"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -10026,9 +10125,9 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
-    </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
+      <c r="AB57" s="1"/>
+    </row>
+    <row r="58" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -10036,7 +10135,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="8"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -10055,9 +10154,9 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+      <c r="AB58" s="1"/>
+    </row>
+    <row r="59" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -10065,7 +10164,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="8"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -10084,9 +10183,9 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
-    </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
+      <c r="AB59" s="1"/>
+    </row>
+    <row r="60" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -10094,7 +10193,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="8"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -10113,9 +10212,9 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
+      <c r="AB60" s="1"/>
+    </row>
+    <row r="61" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -10123,7 +10222,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="8"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -10142,9 +10241,9 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
-    </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
+      <c r="AB61" s="1"/>
+    </row>
+    <row r="62" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -10152,7 +10251,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="8"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -10171,9 +10270,9 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
-    </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
+      <c r="AB62" s="1"/>
+    </row>
+    <row r="63" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -10181,7 +10280,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="8"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -10200,9 +10299,9 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
-    </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
+      <c r="AB63" s="1"/>
+    </row>
+    <row r="64" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -10210,7 +10309,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="8"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -10229,9 +10328,9 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
-    </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
+      <c r="AB64" s="1"/>
+    </row>
+    <row r="65" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -10239,7 +10338,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="8"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -10258,9 +10357,9 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
-    </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
+      <c r="AB65" s="1"/>
+    </row>
+    <row r="66" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -10268,7 +10367,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="8"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -10287,9 +10386,9 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
-    </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
+      <c r="AB66" s="1"/>
+    </row>
+    <row r="67" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -10297,7 +10396,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="8"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -10316,9 +10415,9 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
+      <c r="AB67" s="1"/>
+    </row>
+    <row r="68" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -10326,7 +10425,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="8"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -10345,9 +10444,9 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
-    </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
+      <c r="AB68" s="1"/>
+    </row>
+    <row r="69" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -10355,7 +10454,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="8"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -10374,9 +10473,9 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
-    </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
+      <c r="AB69" s="1"/>
+    </row>
+    <row r="70" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -10384,7 +10483,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="8"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -10403,9 +10502,9 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
-    </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
+      <c r="AB70" s="1"/>
+    </row>
+    <row r="71" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -10413,7 +10512,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="8"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -10432,9 +10531,9 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
-    </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
+      <c r="AB71" s="1"/>
+    </row>
+    <row r="72" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -10442,7 +10541,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="1"/>
+      <c r="I72" s="8"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -10461,9 +10560,9 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
-    </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
+      <c r="AB72" s="1"/>
+    </row>
+    <row r="73" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -10471,7 +10570,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="1"/>
+      <c r="I73" s="8"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -10490,9 +10589,9 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
-    </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
+      <c r="AB73" s="1"/>
+    </row>
+    <row r="74" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -10500,7 +10599,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
-      <c r="I74" s="1"/>
+      <c r="I74" s="8"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -10519,9 +10618,9 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
-    </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
+      <c r="AB74" s="1"/>
+    </row>
+    <row r="75" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -10529,7 +10628,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="1"/>
+      <c r="I75" s="8"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -10548,9 +10647,9 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
-    </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
+      <c r="AB75" s="1"/>
+    </row>
+    <row r="76" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -10558,7 +10657,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="8"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -10577,9 +10676,9 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
-    </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
+      <c r="AB76" s="1"/>
+    </row>
+    <row r="77" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -10587,7 +10686,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="1"/>
+      <c r="I77" s="8"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -10606,9 +10705,9 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
-    </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
+      <c r="AB77" s="1"/>
+    </row>
+    <row r="78" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -10616,7 +10715,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="1"/>
+      <c r="I78" s="8"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -10635,9 +10734,9 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
-    </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
+      <c r="AB78" s="1"/>
+    </row>
+    <row r="79" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -10645,7 +10744,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="1"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -10664,9 +10763,9 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
-    </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
+      <c r="AB79" s="1"/>
+    </row>
+    <row r="80" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -10674,7 +10773,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="1"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -10693,9 +10792,9 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
-    </row>
-    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
+      <c r="AB80" s="1"/>
+    </row>
+    <row r="81" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -10703,7 +10802,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="1"/>
+      <c r="I81" s="8"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -10722,9 +10821,9 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
-    </row>
-    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
+      <c r="AB81" s="1"/>
+    </row>
+    <row r="82" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -10732,7 +10831,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="1"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -10751,9 +10850,9 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
-    </row>
-    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
+      <c r="AB82" s="1"/>
+    </row>
+    <row r="83" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -10761,7 +10860,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="1"/>
+      <c r="I83" s="8"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -10780,9 +10879,9 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
-    </row>
-    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
+      <c r="AB83" s="1"/>
+    </row>
+    <row r="84" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -10790,7 +10889,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="1"/>
+      <c r="I84" s="8"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -10809,9 +10908,9 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
-    </row>
-    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
+      <c r="AB84" s="1"/>
+    </row>
+    <row r="85" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -10819,7 +10918,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="1"/>
+      <c r="I85" s="8"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -10838,9 +10937,9 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
-    </row>
-    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
+      <c r="AB85" s="1"/>
+    </row>
+    <row r="86" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -10848,7 +10947,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="1"/>
+      <c r="I86" s="8"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -10867,9 +10966,9 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
-    </row>
-    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
+      <c r="AB86" s="1"/>
+    </row>
+    <row r="87" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -10877,7 +10976,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="1"/>
+      <c r="I87" s="8"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -10896,9 +10995,9 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
-    </row>
-    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
+      <c r="AB87" s="1"/>
+    </row>
+    <row r="88" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -10906,7 +11005,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="1"/>
+      <c r="I88" s="8"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -10925,9 +11024,9 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
-    </row>
-    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
+      <c r="AB88" s="1"/>
+    </row>
+    <row r="89" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -10935,7 +11034,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="1"/>
+      <c r="I89" s="8"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -10954,9 +11053,9 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
-    </row>
-    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
+      <c r="AB89" s="1"/>
+    </row>
+    <row r="90" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -10964,7 +11063,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="1"/>
+      <c r="I90" s="8"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -10983,9 +11082,9 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
-    </row>
-    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
+      <c r="AB90" s="1"/>
+    </row>
+    <row r="91" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -10993,7 +11092,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
-      <c r="I91" s="1"/>
+      <c r="I91" s="8"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -11012,9 +11111,9 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
-    </row>
-    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
+      <c r="AB91" s="1"/>
+    </row>
+    <row r="92" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -11022,7 +11121,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="1"/>
+      <c r="I92" s="8"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -11041,9 +11140,9 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
-    </row>
-    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
+      <c r="AB92" s="1"/>
+    </row>
+    <row r="93" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -11051,7 +11150,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="1"/>
+      <c r="I93" s="8"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -11070,9 +11169,9 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
-    </row>
-    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
+      <c r="AB93" s="1"/>
+    </row>
+    <row r="94" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -11080,7 +11179,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="1"/>
+      <c r="I94" s="8"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -11099,9 +11198,9 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
-    </row>
-    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
+      <c r="AB94" s="1"/>
+    </row>
+    <row r="95" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -11109,7 +11208,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="1"/>
+      <c r="I95" s="8"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -11128,9 +11227,9 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
-    </row>
-    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
+      <c r="AB95" s="1"/>
+    </row>
+    <row r="96" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -11138,7 +11237,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="1"/>
+      <c r="I96" s="8"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -11157,9 +11256,9 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
-    </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
+      <c r="AB96" s="1"/>
+    </row>
+    <row r="97" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -11167,7 +11266,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="1"/>
+      <c r="I97" s="8"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -11186,9 +11285,9 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
-    </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
+      <c r="AB97" s="1"/>
+    </row>
+    <row r="98" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -11196,7 +11295,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="1"/>
+      <c r="I98" s="8"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -11215,9 +11314,9 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
-    </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
+      <c r="AB98" s="1"/>
+    </row>
+    <row r="99" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -11225,7 +11324,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="1"/>
+      <c r="I99" s="8"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -11244,9 +11343,9 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
-    </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8"/>
+      <c r="AB99" s="1"/>
+    </row>
+    <row r="100" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -11254,7 +11353,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="1"/>
+      <c r="I100" s="8"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -11273,9 +11372,9 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
-    </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8"/>
+      <c r="AB100" s="1"/>
+    </row>
+    <row r="101" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -11283,7 +11382,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="1"/>
+      <c r="I101" s="8"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -11302,9 +11401,9 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
-    </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
+      <c r="AB101" s="1"/>
+    </row>
+    <row r="102" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -11312,7 +11411,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
-      <c r="I102" s="1"/>
+      <c r="I102" s="8"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -11331,9 +11430,9 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
-    </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
+      <c r="AB102" s="1"/>
+    </row>
+    <row r="103" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -11341,7 +11440,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
-      <c r="I103" s="1"/>
+      <c r="I103" s="8"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -11360,9 +11459,9 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
-    </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8"/>
+      <c r="AB103" s="1"/>
+    </row>
+    <row r="104" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -11370,7 +11469,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="1"/>
+      <c r="I104" s="8"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -11389,9 +11488,9 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
-    </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8"/>
+      <c r="AB104" s="1"/>
+    </row>
+    <row r="105" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -11399,7 +11498,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
-      <c r="I105" s="1"/>
+      <c r="I105" s="8"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -11418,9 +11517,9 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
-    </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8"/>
+      <c r="AB105" s="1"/>
+    </row>
+    <row r="106" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -11428,7 +11527,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
-      <c r="I106" s="1"/>
+      <c r="I106" s="8"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -11447,9 +11546,9 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
-    </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="8"/>
+      <c r="AB106" s="1"/>
+    </row>
+    <row r="107" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -11457,7 +11556,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
-      <c r="I107" s="1"/>
+      <c r="I107" s="8"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -11476,9 +11575,9 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
-    </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8"/>
+      <c r="AB107" s="1"/>
+    </row>
+    <row r="108" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -11486,7 +11585,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
-      <c r="I108" s="1"/>
+      <c r="I108" s="8"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -11505,9 +11604,9 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
-    </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8"/>
+      <c r="AB108" s="1"/>
+    </row>
+    <row r="109" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -11515,7 +11614,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
-      <c r="I109" s="1"/>
+      <c r="I109" s="8"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -11534,9 +11633,9 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
-    </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
+      <c r="AB109" s="1"/>
+    </row>
+    <row r="110" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -11544,7 +11643,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
-      <c r="I110" s="1"/>
+      <c r="I110" s="8"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -11563,9 +11662,9 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
-    </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8"/>
+      <c r="AB110" s="1"/>
+    </row>
+    <row r="111" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -11573,7 +11672,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
-      <c r="I111" s="1"/>
+      <c r="I111" s="8"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -11592,9 +11691,9 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
-    </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
+      <c r="AB111" s="1"/>
+    </row>
+    <row r="112" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -11602,7 +11701,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
-      <c r="I112" s="1"/>
+      <c r="I112" s="8"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -11621,9 +11720,9 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
-    </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
+      <c r="AB112" s="1"/>
+    </row>
+    <row r="113" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -11631,7 +11730,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
-      <c r="I113" s="1"/>
+      <c r="I113" s="8"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -11650,9 +11749,9 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
-    </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
+      <c r="AB113" s="1"/>
+    </row>
+    <row r="114" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -11660,7 +11759,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
-      <c r="I114" s="1"/>
+      <c r="I114" s="8"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -11679,9 +11778,9 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
-    </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
+      <c r="AB114" s="1"/>
+    </row>
+    <row r="115" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -11689,7 +11788,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
-      <c r="I115" s="1"/>
+      <c r="I115" s="8"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -11708,9 +11807,9 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
-    </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="8"/>
+      <c r="AB115" s="1"/>
+    </row>
+    <row r="116" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -11718,7 +11817,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
-      <c r="I116" s="1"/>
+      <c r="I116" s="8"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -11737,9 +11836,9 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
-    </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8"/>
+      <c r="AB116" s="1"/>
+    </row>
+    <row r="117" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -11747,7 +11846,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
-      <c r="I117" s="1"/>
+      <c r="I117" s="8"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -11766,9 +11865,9 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
-    </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
+      <c r="AB117" s="1"/>
+    </row>
+    <row r="118" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -11776,7 +11875,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
-      <c r="I118" s="1"/>
+      <c r="I118" s="8"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -11795,9 +11894,9 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
-    </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8"/>
+      <c r="AB118" s="1"/>
+    </row>
+    <row r="119" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -11805,7 +11904,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
-      <c r="I119" s="1"/>
+      <c r="I119" s="8"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -11824,9 +11923,9 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
-    </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8"/>
+      <c r="AB119" s="1"/>
+    </row>
+    <row r="120" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -11834,7 +11933,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
-      <c r="I120" s="1"/>
+      <c r="I120" s="8"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -11853,9 +11952,9 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
-    </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8"/>
+      <c r="AB120" s="1"/>
+    </row>
+    <row r="121" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -11863,7 +11962,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
-      <c r="I121" s="1"/>
+      <c r="I121" s="8"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -11882,9 +11981,9 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
-    </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8"/>
+      <c r="AB121" s="1"/>
+    </row>
+    <row r="122" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -11892,7 +11991,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
-      <c r="I122" s="1"/>
+      <c r="I122" s="8"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -11911,9 +12010,9 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
-    </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8"/>
+      <c r="AB122" s="1"/>
+    </row>
+    <row r="123" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -11921,7 +12020,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
-      <c r="I123" s="1"/>
+      <c r="I123" s="8"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -11940,9 +12039,9 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
-    </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8"/>
+      <c r="AB123" s="1"/>
+    </row>
+    <row r="124" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -11950,7 +12049,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
-      <c r="I124" s="1"/>
+      <c r="I124" s="8"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -11969,9 +12068,9 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
-    </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8"/>
+      <c r="AB124" s="1"/>
+    </row>
+    <row r="125" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -11979,7 +12078,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
-      <c r="I125" s="1"/>
+      <c r="I125" s="8"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -11998,9 +12097,9 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
-    </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="8"/>
+      <c r="AB125" s="1"/>
+    </row>
+    <row r="126" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -12008,7 +12107,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
-      <c r="I126" s="1"/>
+      <c r="I126" s="8"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -12027,9 +12126,9 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
-    </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8"/>
+      <c r="AB126" s="1"/>
+    </row>
+    <row r="127" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -12037,7 +12136,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
-      <c r="I127" s="1"/>
+      <c r="I127" s="8"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -12056,9 +12155,9 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
-    </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8"/>
+      <c r="AB127" s="1"/>
+    </row>
+    <row r="128" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -12066,7 +12165,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
-      <c r="I128" s="1"/>
+      <c r="I128" s="8"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -12085,9 +12184,9 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
-    </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8"/>
+      <c r="AB128" s="1"/>
+    </row>
+    <row r="129" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -12095,7 +12194,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
-      <c r="I129" s="1"/>
+      <c r="I129" s="8"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -12114,9 +12213,9 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
-    </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8"/>
+      <c r="AB129" s="1"/>
+    </row>
+    <row r="130" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -12124,7 +12223,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
-      <c r="I130" s="1"/>
+      <c r="I130" s="8"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -12143,9 +12242,9 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
-    </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="8"/>
+      <c r="AB130" s="1"/>
+    </row>
+    <row r="131" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -12153,7 +12252,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
-      <c r="I131" s="1"/>
+      <c r="I131" s="8"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -12172,9 +12271,9 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
-    </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8"/>
+      <c r="AB131" s="1"/>
+    </row>
+    <row r="132" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -12182,7 +12281,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
-      <c r="I132" s="1"/>
+      <c r="I132" s="8"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -12201,9 +12300,9 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
-    </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8"/>
+      <c r="AB132" s="1"/>
+    </row>
+    <row r="133" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -12211,7 +12310,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
-      <c r="I133" s="1"/>
+      <c r="I133" s="8"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -12230,9 +12329,9 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
-    </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8"/>
+      <c r="AB133" s="1"/>
+    </row>
+    <row r="134" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -12240,7 +12339,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
-      <c r="I134" s="1"/>
+      <c r="I134" s="8"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -12259,9 +12358,9 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
-    </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
+      <c r="AB134" s="1"/>
+    </row>
+    <row r="135" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -12269,7 +12368,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
-      <c r="I135" s="1"/>
+      <c r="I135" s="8"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -12288,9 +12387,9 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
-    </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8"/>
+      <c r="AB135" s="1"/>
+    </row>
+    <row r="136" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -12298,7 +12397,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
-      <c r="I136" s="1"/>
+      <c r="I136" s="8"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -12317,9 +12416,9 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
-    </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8"/>
+      <c r="AB136" s="1"/>
+    </row>
+    <row r="137" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -12327,7 +12426,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
-      <c r="I137" s="1"/>
+      <c r="I137" s="8"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -12346,9 +12445,9 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
-    </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8"/>
+      <c r="AB137" s="1"/>
+    </row>
+    <row r="138" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -12356,7 +12455,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
-      <c r="I138" s="1"/>
+      <c r="I138" s="8"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -12375,9 +12474,9 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
-    </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
+      <c r="AB138" s="1"/>
+    </row>
+    <row r="139" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -12385,7 +12484,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
-      <c r="I139" s="1"/>
+      <c r="I139" s="8"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -12404,9 +12503,9 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
-    </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
+      <c r="AB139" s="1"/>
+    </row>
+    <row r="140" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -12414,7 +12513,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
-      <c r="I140" s="1"/>
+      <c r="I140" s="8"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -12433,9 +12532,9 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
-    </row>
-    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="8"/>
+      <c r="AB140" s="1"/>
+    </row>
+    <row r="141" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -12443,7 +12542,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
-      <c r="I141" s="1"/>
+      <c r="I141" s="8"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -12462,9 +12561,9 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
-    </row>
-    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8"/>
+      <c r="AB141" s="1"/>
+    </row>
+    <row r="142" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -12472,7 +12571,7 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
-      <c r="I142" s="1"/>
+      <c r="I142" s="8"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -12491,9 +12590,9 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
-    </row>
-    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="8"/>
+      <c r="AB142" s="1"/>
+    </row>
+    <row r="143" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -12501,7 +12600,7 @@
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
-      <c r="I143" s="1"/>
+      <c r="I143" s="8"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -12520,9 +12619,9 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
-    </row>
-    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="8"/>
+      <c r="AB143" s="1"/>
+    </row>
+    <row r="144" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -12530,7 +12629,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
-      <c r="I144" s="1"/>
+      <c r="I144" s="8"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -12549,9 +12648,9 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
-    </row>
-    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="8"/>
+      <c r="AB144" s="1"/>
+    </row>
+    <row r="145" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -12559,7 +12658,7 @@
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
-      <c r="I145" s="1"/>
+      <c r="I145" s="8"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -12578,9 +12677,9 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
-    </row>
-    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="8"/>
+      <c r="AB145" s="1"/>
+    </row>
+    <row r="146" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -12588,7 +12687,7 @@
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
-      <c r="I146" s="1"/>
+      <c r="I146" s="8"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -12607,9 +12706,9 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
-    </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="8"/>
+      <c r="AB146" s="1"/>
+    </row>
+    <row r="147" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -12617,7 +12716,7 @@
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
-      <c r="I147" s="1"/>
+      <c r="I147" s="8"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -12636,9 +12735,9 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
-    </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="8"/>
+      <c r="AB147" s="1"/>
+    </row>
+    <row r="148" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -12646,7 +12745,7 @@
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
-      <c r="I148" s="1"/>
+      <c r="I148" s="8"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -12665,9 +12764,9 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
-    </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8"/>
+      <c r="AB148" s="1"/>
+    </row>
+    <row r="149" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -12675,7 +12774,7 @@
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
-      <c r="I149" s="1"/>
+      <c r="I149" s="8"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -12694,9 +12793,9 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
-    </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="8"/>
+      <c r="AB149" s="1"/>
+    </row>
+    <row r="150" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -12704,7 +12803,7 @@
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
-      <c r="I150" s="1"/>
+      <c r="I150" s="8"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -12723,9 +12822,9 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
-    </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="8"/>
+      <c r="AB150" s="1"/>
+    </row>
+    <row r="151" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
@@ -12733,7 +12832,7 @@
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
-      <c r="I151" s="1"/>
+      <c r="I151" s="8"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
@@ -12752,9 +12851,9 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
-    </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="8"/>
+      <c r="AB151" s="1"/>
+    </row>
+    <row r="152" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -12762,7 +12861,7 @@
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
-      <c r="I152" s="1"/>
+      <c r="I152" s="8"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -12781,9 +12880,9 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
-    </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="8"/>
+      <c r="AB152" s="1"/>
+    </row>
+    <row r="153" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
@@ -12791,7 +12890,7 @@
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
-      <c r="I153" s="1"/>
+      <c r="I153" s="8"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -12810,9 +12909,9 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
-    </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="8"/>
+      <c r="AB153" s="1"/>
+    </row>
+    <row r="154" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -12820,7 +12919,7 @@
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
-      <c r="I154" s="1"/>
+      <c r="I154" s="8"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -12839,9 +12938,9 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
-    </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="8"/>
+      <c r="AB154" s="1"/>
+    </row>
+    <row r="155" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -12849,7 +12948,7 @@
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
-      <c r="I155" s="1"/>
+      <c r="I155" s="8"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -12868,9 +12967,9 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
-    </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="8"/>
+      <c r="AB155" s="1"/>
+    </row>
+    <row r="156" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -12878,7 +12977,7 @@
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
-      <c r="I156" s="1"/>
+      <c r="I156" s="8"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -12897,9 +12996,9 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
-    </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="8"/>
+      <c r="AB156" s="1"/>
+    </row>
+    <row r="157" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -12907,7 +13006,7 @@
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
-      <c r="I157" s="1"/>
+      <c r="I157" s="8"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -12926,9 +13025,9 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
-    </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8"/>
+      <c r="AB157" s="1"/>
+    </row>
+    <row r="158" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -12936,7 +13035,7 @@
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
-      <c r="I158" s="1"/>
+      <c r="I158" s="8"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -12955,9 +13054,9 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
-    </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="8"/>
+      <c r="AB158" s="1"/>
+    </row>
+    <row r="159" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -12965,7 +13064,7 @@
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
-      <c r="I159" s="1"/>
+      <c r="I159" s="8"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -12984,9 +13083,9 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
-    </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="8"/>
+      <c r="AB159" s="1"/>
+    </row>
+    <row r="160" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -12994,7 +13093,7 @@
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
-      <c r="I160" s="1"/>
+      <c r="I160" s="8"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
@@ -13013,9 +13112,9 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
-    </row>
-    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="8"/>
+      <c r="AB160" s="1"/>
+    </row>
+    <row r="161" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -13023,7 +13122,7 @@
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
-      <c r="I161" s="1"/>
+      <c r="I161" s="8"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -13042,9 +13141,9 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
-    </row>
-    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="8"/>
+      <c r="AB161" s="1"/>
+    </row>
+    <row r="162" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -13052,7 +13151,7 @@
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
-      <c r="I162" s="1"/>
+      <c r="I162" s="8"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -13071,9 +13170,9 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
-    </row>
-    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="8"/>
+      <c r="AB162" s="1"/>
+    </row>
+    <row r="163" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -13081,7 +13180,7 @@
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
-      <c r="I163" s="1"/>
+      <c r="I163" s="8"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -13100,9 +13199,9 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
-    </row>
-    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="8"/>
+      <c r="AB163" s="1"/>
+    </row>
+    <row r="164" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -13110,7 +13209,7 @@
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
-      <c r="I164" s="1"/>
+      <c r="I164" s="8"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -13129,9 +13228,9 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
-    </row>
-    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="8"/>
+      <c r="AB164" s="1"/>
+    </row>
+    <row r="165" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
@@ -13139,7 +13238,7 @@
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
-      <c r="I165" s="1"/>
+      <c r="I165" s="8"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -13158,9 +13257,9 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
-    </row>
-    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="8"/>
+      <c r="AB165" s="1"/>
+    </row>
+    <row r="166" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
@@ -13168,7 +13267,7 @@
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
-      <c r="I166" s="1"/>
+      <c r="I166" s="8"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -13187,9 +13286,9 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
-    </row>
-    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="8"/>
+      <c r="AB166" s="1"/>
+    </row>
+    <row r="167" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -13197,7 +13296,7 @@
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
-      <c r="I167" s="1"/>
+      <c r="I167" s="8"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -13216,9 +13315,9 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
-    </row>
-    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="8"/>
+      <c r="AB167" s="1"/>
+    </row>
+    <row r="168" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
@@ -13226,7 +13325,7 @@
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
-      <c r="I168" s="1"/>
+      <c r="I168" s="8"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -13245,9 +13344,9 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
-    </row>
-    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="8"/>
+      <c r="AB168" s="1"/>
+    </row>
+    <row r="169" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -13255,7 +13354,7 @@
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
-      <c r="I169" s="1"/>
+      <c r="I169" s="8"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -13274,9 +13373,9 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
-    </row>
-    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="8"/>
+      <c r="AB169" s="1"/>
+    </row>
+    <row r="170" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
@@ -13284,7 +13383,7 @@
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
-      <c r="I170" s="1"/>
+      <c r="I170" s="8"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -13303,9 +13402,9 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
-    </row>
-    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="8"/>
+      <c r="AB170" s="1"/>
+    </row>
+    <row r="171" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
@@ -13313,7 +13412,7 @@
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
-      <c r="I171" s="1"/>
+      <c r="I171" s="8"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -13332,9 +13431,9 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
-    </row>
-    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="8"/>
+      <c r="AB171" s="1"/>
+    </row>
+    <row r="172" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
@@ -13342,7 +13441,7 @@
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
-      <c r="I172" s="1"/>
+      <c r="I172" s="8"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -13361,9 +13460,9 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
-    </row>
-    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="8"/>
+      <c r="AB172" s="1"/>
+    </row>
+    <row r="173" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
@@ -13371,7 +13470,7 @@
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
-      <c r="I173" s="1"/>
+      <c r="I173" s="8"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -13390,9 +13489,9 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
-    </row>
-    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="8"/>
+      <c r="AB173" s="1"/>
+    </row>
+    <row r="174" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
@@ -13400,7 +13499,7 @@
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
-      <c r="I174" s="1"/>
+      <c r="I174" s="8"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -13419,9 +13518,9 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
-    </row>
-    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="8"/>
+      <c r="AB174" s="1"/>
+    </row>
+    <row r="175" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
@@ -13429,7 +13528,7 @@
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
-      <c r="I175" s="1"/>
+      <c r="I175" s="8"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
@@ -13448,9 +13547,9 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
-    </row>
-    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="8"/>
+      <c r="AB175" s="1"/>
+    </row>
+    <row r="176" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
@@ -13458,7 +13557,7 @@
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
-      <c r="I176" s="1"/>
+      <c r="I176" s="8"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -13477,9 +13576,9 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
-    </row>
-    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="8"/>
+      <c r="AB176" s="1"/>
+    </row>
+    <row r="177" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
@@ -13487,7 +13586,7 @@
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
-      <c r="I177" s="1"/>
+      <c r="I177" s="8"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -13506,9 +13605,9 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
-    </row>
-    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="8"/>
+      <c r="AB177" s="1"/>
+    </row>
+    <row r="178" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
@@ -13516,7 +13615,7 @@
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
-      <c r="I178" s="1"/>
+      <c r="I178" s="8"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
@@ -13535,9 +13634,9 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
-    </row>
-    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="8"/>
+      <c r="AB178" s="1"/>
+    </row>
+    <row r="179" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
@@ -13545,7 +13644,7 @@
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
-      <c r="I179" s="1"/>
+      <c r="I179" s="8"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
@@ -13564,9 +13663,9 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
-    </row>
-    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="8"/>
+      <c r="AB179" s="1"/>
+    </row>
+    <row r="180" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
@@ -13574,7 +13673,7 @@
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
-      <c r="I180" s="1"/>
+      <c r="I180" s="8"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
@@ -13593,9 +13692,9 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
-    </row>
-    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="8"/>
+      <c r="AB180" s="1"/>
+    </row>
+    <row r="181" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
@@ -13603,7 +13702,7 @@
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
-      <c r="I181" s="1"/>
+      <c r="I181" s="8"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -13622,9 +13721,9 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
-    </row>
-    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="8"/>
+      <c r="AB181" s="1"/>
+    </row>
+    <row r="182" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
@@ -13632,7 +13731,7 @@
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
-      <c r="I182" s="1"/>
+      <c r="I182" s="8"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -13651,9 +13750,9 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
-    </row>
-    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="8"/>
+      <c r="AB182" s="1"/>
+    </row>
+    <row r="183" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
@@ -13661,7 +13760,7 @@
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
-      <c r="I183" s="1"/>
+      <c r="I183" s="8"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -13680,9 +13779,9 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
-    </row>
-    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="8"/>
+      <c r="AB183" s="1"/>
+    </row>
+    <row r="184" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
@@ -13690,7 +13789,7 @@
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
-      <c r="I184" s="1"/>
+      <c r="I184" s="8"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -13709,9 +13808,9 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
-    </row>
-    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="8"/>
+      <c r="AB184" s="1"/>
+    </row>
+    <row r="185" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
@@ -13719,7 +13818,7 @@
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
-      <c r="I185" s="1"/>
+      <c r="I185" s="8"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -13738,9 +13837,9 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
-    </row>
-    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="8"/>
+      <c r="AB185" s="1"/>
+    </row>
+    <row r="186" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
@@ -13748,7 +13847,7 @@
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
-      <c r="I186" s="1"/>
+      <c r="I186" s="8"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
@@ -13767,9 +13866,9 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
-    </row>
-    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="8"/>
+      <c r="AB186" s="1"/>
+    </row>
+    <row r="187" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
@@ -13777,7 +13876,7 @@
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
-      <c r="I187" s="1"/>
+      <c r="I187" s="8"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
@@ -13796,9 +13895,9 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
-    </row>
-    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="8"/>
+      <c r="AB187" s="1"/>
+    </row>
+    <row r="188" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
@@ -13806,7 +13905,7 @@
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
-      <c r="I188" s="1"/>
+      <c r="I188" s="8"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
@@ -13825,9 +13924,9 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
-    </row>
-    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="8"/>
+      <c r="AB188" s="1"/>
+    </row>
+    <row r="189" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
@@ -13835,7 +13934,7 @@
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
-      <c r="I189" s="1"/>
+      <c r="I189" s="8"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
@@ -13854,9 +13953,9 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
-    </row>
-    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="8"/>
+      <c r="AB189" s="1"/>
+    </row>
+    <row r="190" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
@@ -13864,7 +13963,7 @@
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
-      <c r="I190" s="1"/>
+      <c r="I190" s="8"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
@@ -13883,9 +13982,9 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
-    </row>
-    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="8"/>
+      <c r="AB190" s="1"/>
+    </row>
+    <row r="191" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
@@ -13893,7 +13992,7 @@
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
-      <c r="I191" s="1"/>
+      <c r="I191" s="8"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -13912,9 +14011,9 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
-    </row>
-    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="8"/>
+      <c r="AB191" s="1"/>
+    </row>
+    <row r="192" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
@@ -13922,7 +14021,7 @@
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
-      <c r="I192" s="1"/>
+      <c r="I192" s="8"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -13941,9 +14040,9 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
-    </row>
-    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="8"/>
+      <c r="AB192" s="1"/>
+    </row>
+    <row r="193" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
@@ -13951,7 +14050,7 @@
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
-      <c r="I193" s="1"/>
+      <c r="I193" s="8"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -13970,9 +14069,9 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
-    </row>
-    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="8"/>
+      <c r="AB193" s="1"/>
+    </row>
+    <row r="194" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
@@ -13980,7 +14079,7 @@
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
-      <c r="I194" s="1"/>
+      <c r="I194" s="8"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -13999,9 +14098,9 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
-    </row>
-    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="8"/>
+      <c r="AB194" s="1"/>
+    </row>
+    <row r="195" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
@@ -14009,7 +14108,7 @@
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
-      <c r="I195" s="1"/>
+      <c r="I195" s="8"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -14028,9 +14127,9 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
-    </row>
-    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="8"/>
+      <c r="AB195" s="1"/>
+    </row>
+    <row r="196" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
@@ -14038,7 +14137,7 @@
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
-      <c r="I196" s="1"/>
+      <c r="I196" s="8"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -14057,9 +14156,9 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
-    </row>
-    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="8"/>
+      <c r="AB196" s="1"/>
+    </row>
+    <row r="197" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
@@ -14067,7 +14166,7 @@
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
-      <c r="I197" s="1"/>
+      <c r="I197" s="8"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -14086,9 +14185,9 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
-    </row>
-    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="8"/>
+      <c r="AB197" s="1"/>
+    </row>
+    <row r="198" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
@@ -14096,7 +14195,7 @@
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
-      <c r="I198" s="1"/>
+      <c r="I198" s="8"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -14115,9 +14214,9 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
-    </row>
-    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="8"/>
+      <c r="AB198" s="1"/>
+    </row>
+    <row r="199" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
@@ -14125,7 +14224,7 @@
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
-      <c r="I199" s="1"/>
+      <c r="I199" s="8"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -14144,9 +14243,9 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
-    </row>
-    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="8"/>
+      <c r="AB199" s="1"/>
+    </row>
+    <row r="200" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
@@ -14154,7 +14253,7 @@
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
-      <c r="I200" s="1"/>
+      <c r="I200" s="8"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -14173,9 +14272,9 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
-    </row>
-    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="8"/>
+      <c r="AB200" s="1"/>
+    </row>
+    <row r="201" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
@@ -14183,7 +14282,7 @@
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
-      <c r="I201" s="1"/>
+      <c r="I201" s="8"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -14202,9 +14301,9 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
-    </row>
-    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="8"/>
+      <c r="AB201" s="1"/>
+    </row>
+    <row r="202" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
@@ -14212,7 +14311,7 @@
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
       <c r="H202" s="8"/>
-      <c r="I202" s="1"/>
+      <c r="I202" s="8"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
@@ -14231,9 +14330,9 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
-    </row>
-    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="8"/>
+      <c r="AB202" s="1"/>
+    </row>
+    <row r="203" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
@@ -14241,7 +14340,7 @@
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
-      <c r="I203" s="1"/>
+      <c r="I203" s="8"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -14260,9 +14359,9 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
-    </row>
-    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="8"/>
+      <c r="AB203" s="1"/>
+    </row>
+    <row r="204" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
@@ -14270,7 +14369,7 @@
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
       <c r="H204" s="8"/>
-      <c r="I204" s="1"/>
+      <c r="I204" s="8"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
@@ -14289,9 +14388,9 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
-    </row>
-    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="8"/>
+      <c r="AB204" s="1"/>
+    </row>
+    <row r="205" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
@@ -14299,7 +14398,7 @@
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
       <c r="H205" s="8"/>
-      <c r="I205" s="1"/>
+      <c r="I205" s="8"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
@@ -14318,9 +14417,9 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
-    </row>
-    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="8"/>
+      <c r="AB205" s="1"/>
+    </row>
+    <row r="206" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
@@ -14328,7 +14427,7 @@
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
       <c r="H206" s="8"/>
-      <c r="I206" s="1"/>
+      <c r="I206" s="8"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -14347,9 +14446,9 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
-    </row>
-    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="8"/>
+      <c r="AB206" s="1"/>
+    </row>
+    <row r="207" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
@@ -14357,7 +14456,7 @@
       <c r="F207" s="8"/>
       <c r="G207" s="8"/>
       <c r="H207" s="8"/>
-      <c r="I207" s="1"/>
+      <c r="I207" s="8"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
@@ -14376,9 +14475,9 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
-    </row>
-    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="8"/>
+      <c r="AB207" s="1"/>
+    </row>
+    <row r="208" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
@@ -14386,7 +14485,7 @@
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
       <c r="H208" s="8"/>
-      <c r="I208" s="1"/>
+      <c r="I208" s="8"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
@@ -14405,9 +14504,9 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
-    </row>
-    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="8"/>
+      <c r="AB208" s="1"/>
+    </row>
+    <row r="209" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
@@ -14415,7 +14514,7 @@
       <c r="F209" s="8"/>
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
-      <c r="I209" s="1"/>
+      <c r="I209" s="8"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -14434,9 +14533,9 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
-    </row>
-    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="8"/>
+      <c r="AB209" s="1"/>
+    </row>
+    <row r="210" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
@@ -14444,7 +14543,7 @@
       <c r="F210" s="8"/>
       <c r="G210" s="8"/>
       <c r="H210" s="8"/>
-      <c r="I210" s="1"/>
+      <c r="I210" s="8"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -14463,9 +14562,9 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
-    </row>
-    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="8"/>
+      <c r="AB210" s="1"/>
+    </row>
+    <row r="211" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
@@ -14473,7 +14572,7 @@
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
-      <c r="I211" s="1"/>
+      <c r="I211" s="8"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -14492,9 +14591,9 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
-    </row>
-    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="8"/>
+      <c r="AB211" s="1"/>
+    </row>
+    <row r="212" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
@@ -14502,7 +14601,7 @@
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
       <c r="H212" s="8"/>
-      <c r="I212" s="1"/>
+      <c r="I212" s="8"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -14521,9 +14620,9 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
-    </row>
-    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="8"/>
+      <c r="AB212" s="1"/>
+    </row>
+    <row r="213" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
@@ -14531,7 +14630,7 @@
       <c r="F213" s="8"/>
       <c r="G213" s="8"/>
       <c r="H213" s="8"/>
-      <c r="I213" s="1"/>
+      <c r="I213" s="8"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
@@ -14550,9 +14649,9 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
-    </row>
-    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="8"/>
+      <c r="AB213" s="1"/>
+    </row>
+    <row r="214" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
@@ -14560,7 +14659,7 @@
       <c r="F214" s="8"/>
       <c r="G214" s="8"/>
       <c r="H214" s="8"/>
-      <c r="I214" s="1"/>
+      <c r="I214" s="8"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
@@ -14579,9 +14678,9 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
-    </row>
-    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="8"/>
+      <c r="AB214" s="1"/>
+    </row>
+    <row r="215" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
@@ -14589,7 +14688,7 @@
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
       <c r="H215" s="8"/>
-      <c r="I215" s="1"/>
+      <c r="I215" s="8"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
@@ -14608,9 +14707,9 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
-    </row>
-    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="8"/>
+      <c r="AB215" s="1"/>
+    </row>
+    <row r="216" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
@@ -14618,7 +14717,7 @@
       <c r="F216" s="8"/>
       <c r="G216" s="8"/>
       <c r="H216" s="8"/>
-      <c r="I216" s="1"/>
+      <c r="I216" s="8"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
@@ -14637,9 +14736,9 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
       <c r="AA216" s="1"/>
-    </row>
-    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="8"/>
+      <c r="AB216" s="1"/>
+    </row>
+    <row r="217" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
@@ -14647,7 +14746,7 @@
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
       <c r="H217" s="8"/>
-      <c r="I217" s="1"/>
+      <c r="I217" s="8"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -14666,9 +14765,9 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
-    </row>
-    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="8"/>
+      <c r="AB217" s="1"/>
+    </row>
+    <row r="218" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
@@ -14676,7 +14775,7 @@
       <c r="F218" s="8"/>
       <c r="G218" s="8"/>
       <c r="H218" s="8"/>
-      <c r="I218" s="1"/>
+      <c r="I218" s="8"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
@@ -14695,9 +14794,9 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
-    </row>
-    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="8"/>
+      <c r="AB218" s="1"/>
+    </row>
+    <row r="219" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
@@ -14705,7 +14804,7 @@
       <c r="F219" s="8"/>
       <c r="G219" s="8"/>
       <c r="H219" s="8"/>
-      <c r="I219" s="1"/>
+      <c r="I219" s="8"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -14724,9 +14823,9 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
-    </row>
-    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="8"/>
+      <c r="AB219" s="1"/>
+    </row>
+    <row r="220" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
@@ -14734,7 +14833,7 @@
       <c r="F220" s="8"/>
       <c r="G220" s="8"/>
       <c r="H220" s="8"/>
-      <c r="I220" s="1"/>
+      <c r="I220" s="8"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
@@ -14753,11 +14852,12 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
-    </row>
-    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AB220" s="1"/>
+    </row>
+    <row r="221" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15535,11 +15635,12 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H11">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
